--- a/variable_step_size/steepest_descent_function_3_variable.xlsx
+++ b/variable_step_size/steepest_descent_function_3_variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\Steepest Descent\variable_step_size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB932322-24E6-4F80-AF13-0F1A32AB1768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C46AD7-75B3-4256-984F-6385D566D68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5765,6 +5765,6899 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>||∇ f || vs k</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>1.000000028036327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999999875991996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.000000061704218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99999851883797053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.000000175882962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.000000090984261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.000000194915299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99998318403261066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999987452708716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0000044576315761</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999954504788269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0001110078483331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0000003474256169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0000016468773909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99999959896771129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.000067052474888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0000001412172641</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99999533277321295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99999999506582071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.000058476328971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.000000223620805</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99998775488939784</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.000001088839233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99997818094469415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0000011058675271</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.000077815960303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999925566898196</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99944912334272018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9999988523761344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99997290743904343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.000000816616087</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85159491830503953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99999982631911255</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99999692052126177</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.000000620119601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99999148815886718</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99999915934105499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99999368793855126</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99999915806967454</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9999926525493531</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0000031305593251</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0000458465107021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99999988753637126</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99998828569975662</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.00000102840704</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99950493694098996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.00000153765466</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9999624591867291</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.000000911681147</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0006558010956981</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99999628670441765</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0000087437622409</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99999674432705199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99989848003314286</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99999961973161133</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99997579794467661</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.000000873308486</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0003824644302459</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0000007376462301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.000067396204954</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0000011172504779</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0004287513995229</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.000001564102279</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99996365175619795</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99999927917781184</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.425575852394104</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999856948852539</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99999904632568359</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99999457597732544</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99999535083770752</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999827146530151</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.000007152557373</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.000005900859833</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999785423278809</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.00000387430191</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99999815225601196</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99999719858169556</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0000045299530029</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99999815225601196</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99999350309371948</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999839067459106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.000003516674042</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99999856948852539</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9999963641166687</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0000002384185791</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0000002384185791</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99999415874481201</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.000006794929504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.000001013278961</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.000002324581146</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99999392032623291</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99999606609344482</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99999850988388062</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.00000524520874</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99999397993087769</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99999982118606567</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.000000536441803</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99999690055847168</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999922513961792</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.000000596046448</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999797344207764</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0000002384185791</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0000037550926211</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0000096559524541</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0000085830688481</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.99998843669891357</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.000001907348633</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.99999904632568359</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.99999767541885376</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.99999076128005981</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.99999874830245972</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.99999558925628662</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.99999994039535522</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.99999105930328369</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0000001788139341</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.99999642372131348</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.99999666213989258</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99999934434890747</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99998939037322998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.000003933906555</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.99999445676803589</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0000008344650271</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.9999963641166687</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0000118613243101</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0000003576278691</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.99998927116394043</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.99999922513961792</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0000030994415281</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.99999344348907471</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.0000162720680239</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.0000094771385191</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.99999910593032837</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.99999570846557617</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.99999511241912842</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.000002443790436</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.000012993812561</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.99999099969863892</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.99999433755874634</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.99999397993087769</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.99999791383743286</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.99999994039535522</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.99999141693115234</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.0000030994415281</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.99999946355819702</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.0000020861625669</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.00000387430191</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.99999511241912842</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.9999847412109375</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.00000923871994</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.000005304813385</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.9999968409538269</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.0000032186508181</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.0000075101852419</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.000017106533051</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.000004887580872</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.99999737739562988</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0000021457672119</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.99999308586120605</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.99999886751174927</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.00001472234726</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.99999320507049561</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.000001966953278</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.0000002384185791</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.99999648332595825</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.99999040365219116</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.0000001788139341</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.99999362230300903</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.99999076128005981</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.99999666213989258</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0000007152557371</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.99999231100082397</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0000073313713069</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.0000147819519041</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99999719858169556</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.99999278783798218</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.0000008940696721</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.000005900859833</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.000001966953278</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.000004768371582</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.99998587369918823</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.99999988079071045</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.99998563528060913</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.000000476837158</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.000012278556824</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.0000143051147461</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.99999386072158813</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.0000003576278691</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.000013589859009</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.0000002980232241</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.99999433755874634</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.99999731779098511</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.0000016093254089</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.99998611211776733</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.000015437602997</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.000003457069397</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.0000155568122859</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.000012218952179</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.99999606609344482</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.0000153183937071</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.000027179718018</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.000003516674042</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.99999970197677612</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.000012159347534</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.000003337860107</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.0000103712081909</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.99999320507049561</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.99998843669891357</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.99999463558197021</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.99999654293060303</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.99999827146530151</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.0000060200691221</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.00001460313797</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.000003457069397</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.0000128149986269</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.000001788139343</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.0000178217887881</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.9999958872795105</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.99999308586120605</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.000008285045624</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.99999523162841797</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.0000095963478091</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.99999016523361206</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.99999678134918213</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.000004649162292</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.0000026822090149</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.0000080466270449</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.99999523162841797</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.0000124573707581</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.99999648332595825</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.000000417232513</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.0000066161155701</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.99998390674591064</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.0000067353248601</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.99998676776885986</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.0000177025794981</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.99999982118606567</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.0000015497207639</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.000013530254364</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.00000387430191</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.000021159648895</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.000000953674316</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.000024616718292</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.0000151395797729</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.99999731779098511</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.000011146068573</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.000001072883606</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.000037789344788</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.000005722045898</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.99997597932815552</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.000013589859009</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.99996304512023926</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.0000026822090149</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.99998414516448975</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.99998599290847778</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.99997800588607788</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.000019907951355</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.99999243021011353</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.99999433755874634</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.99999314546585083</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.0000013113021851</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.99998396635055542</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.99999189376831055</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.000041604042053</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.0000069737434389</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.0000007152557371</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.99999833106994629</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.000032901763916</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.000011265277863</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.99999862909317017</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.99998992681503296</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.000006258487701</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.000011622905731</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.0000041723251341</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.0000143051147461</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.99997270107269287</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.99999010562896729</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.0000177621841431</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.00000524520874</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.99999064207077026</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.0000078678131099</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.0000302195549009</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.0000055432319639</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.99998480081558228</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.000017642974854</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.99997878074645996</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.99998557567596436</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.0000126361846919</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.9999854564666748</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.99999821186065674</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.99998706579208374</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.000003337860107</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.99999099969863892</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.99997055530548096</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.000005781650543</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.99997848272323608</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.0000153183937071</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.0000085830688481</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.000007212162018</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.000016033649445</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.99998992681503296</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.99995285272598267</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.9999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.99998766183853149</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.99998998641967773</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.0000292658805849</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.000001132488251</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.000027537345886</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.99999731779098511</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.000013411045074</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.000001192092896</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.99998372793197632</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.000020027160645</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.000036299228668</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.0000138878822331</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.000018715858459</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.99999409914016724</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.000000059604645</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.99999594688415527</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.0000408291816709</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.99999547004699707</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.0000184774398799</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.99999845027923584</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.99997133016586304</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.99999129772186279</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.99999457597732544</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.9999968409538269</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.99994242191314697</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.000003337860107</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.9999738335609436</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.000005841255188</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.99997729063034058</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.0000109672546389</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.9999886155128479</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.99998587369918823</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.0000032186508181</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.99999392032623291</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.99998348951339722</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.9999922513961792</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.99999332427978516</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.0000098943710329</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.99999701976776123</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.000000476837158</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.99999868869781494</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.0000128149986269</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.99998724460601807</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.9999847412109375</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.99999159574508667</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.0000069737434389</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.999958336353302</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.0000039935112</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.0000103116035459</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.99999624490737915</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.0000040531158449</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.99999916553497314</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.0000013113021851</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.0000143647193911</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.9999992847442627</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.99997103214263916</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.0000107884407039</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.0000197291374211</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.99998998641967773</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.0000519752502439</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.0000020861625669</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.99994778633117676</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.000013113021851</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.000064611434937</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.99999058246612549</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.99999332427978516</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.99999326467514038</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.9999510645866394</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.000016570091248</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.99998193979263306</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.000021696090698</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.0000026822090149</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.99999862909317017</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.99999368190765381</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.99997907876968384</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.0000074505805969</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.99999737739562988</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.0000813007354741</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.99999725818634033</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.0000569224357601</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.99999374151229858</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.99991506338119507</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.99998551607131958</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.99998611211776733</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.000018954277039</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.0000045895576479</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.000008285045624</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.000037729740143</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.99999779462814331</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.99993383884429932</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.99998337030410767</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.99994999170303345</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.000017106533051</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.99998855590820313</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.0000126957893369</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.000000655651093</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.000015795230865</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.99993628263473511</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.0000119805336001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.000040531158447</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.99999243021011353</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.0000438690185549</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.000004887580872</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.0000013113021851</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.99999535083770752</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.9999154806137085</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.99998980760574341</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.000042796134949</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.000003516674042</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.000008344650269</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.99998664855957031</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.000015497207642</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.0000037550926211</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.99998050928115845</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.99999517202377319</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.00007688999176</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.000014662742615</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.0000666975975041</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.0000123381614689</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.0000278949737551</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.99999642372131348</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.0000159740448</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.99997955560684204</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.000047385692596</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.0000021457672119</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.000009179115295</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.000010132789612</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.0000191330909729</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.99998933076858521</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.99993932247161865</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.99998277425765991</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.0000501275062561</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.99999767541885376</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.000002503395081</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.99999982118606567</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.99999654293060303</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.99998658895492554</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.000063002109528</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.0000118613243101</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.000099122524261</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.99999982118606567</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0.99999034404754639</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.0000162720680239</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.99996048212051392</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0.99999988079071045</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.0000478625297551</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.99999600648880005</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.0000848174095149</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.000017106533051</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0.99993938207626343</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0.99998730421066284</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.000116229057312</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.99997985363006592</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.000144422054291</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.000005781650543</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.0000675916671751</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.0000013709068301</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.99993026256561279</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.0000016689300539</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.000016331672668</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.00000923871994</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.99996119737625122</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.000003337860107</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.000004768371582</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.99998295307159424</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.000163793563843</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.99999439716339111</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.99989455938339233</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.000017404556274</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.99998033046722412</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.99997818470001221</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.000031530857086</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.99997854232788086</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.99992722272872925</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.00001448392868</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.99990987777709961</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.000025272369385</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.99997490644454956</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.0000190734863279</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.0000206232070921</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.99999940395355225</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.0000032782554631</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.99999099969863892</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.99980467557907104</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.00001472234726</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.99996858835220337</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.99999123811721802</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.99990087747573853</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.99999958276748657</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.0000108480453489</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.0000073909759519</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.0001072883605959</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.9999966025352478</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.000005185604095</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.000004351139069</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.99984502792358398</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.000015079975128</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.000069141387939</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1.0000026822090149</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.99993348121643066</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.000010192394257</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.99995744228363037</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.99998044967651367</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.99981164932250977</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.99999600648880005</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1.0001761913299561</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1.0000120401382451</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.99982219934463501</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.000015020370483</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.000141978263855</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.99998855590820313</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.000176846981049</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.000015914440155</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0.99989515542984009</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.000026941299438</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.000125586986542</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.0000181794166561</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0.99990642070770264</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.0000196695327761</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.0000601410865779</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.000008821487427</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.00016713142395</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0.99999046325683594</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.9998742938041687</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1.0000172257423401</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.99995768070220947</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.99999922513961792</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.99997884035110474</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.99999237060546875</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.99984055757522583</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>1.0000097751617429</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>1.000187754631042</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>1.000000059604645</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>1.0001721382141111</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1.0000180602073669</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>1.0000056624412541</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.99997526407241821</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>1.0000544190406799</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.99999547004699707</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.99993550777435303</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1.000011146068573</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0.99995136260986328</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0.99997520446777344</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1.0000273585319519</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>0.9999813437461853</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1.0000172853469851</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0.99999105930328369</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1.0000036954879761</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1.0000120401382451</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>1.0001789927482601</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0.99999451637268066</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0.99981296062469482</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0.99998140335083008</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0.99977588653564453</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>1.000016391277313</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>0.99990886449813843</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1.000002384185791</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1.000061094760895</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1.0000125765800481</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1.000168979167938</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1.0000127553939819</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1.0002123117446899</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.99998968839645386</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1.000091433525085</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.99998629093170166</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1.000024259090424</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>1.000002324581146</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1.0000296831130979</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1.0000167489051821</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0.99977368116378784</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1.000014007091522</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0.99961709976196289</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>1.0000148415565491</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>1.000369012355804</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.99997252225875854</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0.9996839165687561</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>1.00001448392868</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>1.000166177749634</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>1.000017583370209</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0.9999617338180542</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1.0000066757202151</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>1.0002720952034001</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>1.0000138282775879</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>0.99978387355804443</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>1.000013589859009</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.99964690208435059</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0.99999558925628662</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>1.000178396701813</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0.9999811053276062</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>1.000294029712677</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>1.0000056028366091</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>1.000001788139343</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>1.0000155568122859</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>1.000339090824127</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1.0000070333480831</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.99976706504821777</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.99997735023498535</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>1.000054717063904</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>1.0000180602073669</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>1.0001076459884639</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>1.0000345706939699</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.99997973442077637</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>1.000001072883606</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.99989604949951172</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>1.0000089406967161</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.99992746114730835</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1.0000186562538149</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1.000170886516571</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1.0000014901161189</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.000324428081512</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.0000255107879641</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.99993175268173218</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.000013649463654</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.9997602105140686</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1.000003039836884</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.99985659122467041</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.99998486042022705</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.99982702732086182</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.99996709823608398</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.99931657314300537</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.000024795532227</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1.0000302791595459</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>1.0000091195106511</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1.000182509422302</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>1.0000032186508181</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.99939578771591187</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.99997782707214355</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.99993038177490234</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>1.000024795532227</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>1.000218868255615</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.99996757507324219</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.99940460920333862</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>1.000016331672668</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>1.000598728656769</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>1.0000109076499939</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>1.00004118680954</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>1.000015079975128</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>1.0005631446838379</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.99998903274536133</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0.99998211860656738</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>0.99997192621231079</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>1.0006643533706669</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0.99997925758361816</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0.9990159273147583</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>1.0000108480453489</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0.99906939268112183</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>1.0000073313713069</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>1.0010203719139099</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>0.99998247623443604</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>0.99944007396697998</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>0.99998480081558228</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>0.99957096576690674</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>1.0000045895576479</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>1.0008454918861389</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>0.99997574090957642</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>1.0003858208656311</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>0.99997764825820923</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>0.99977290630340576</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>0.99999397993087769</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>0.99861979484558105</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>1.0000207424163821</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>0.99987906217575073</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>0.99999374151229858</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>1.0018443465232849</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>1.0000395178794861</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>1.0013436675071721</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.99998748302459717</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>1.002238512039185</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.99998664855957031</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.99755454063415527</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.99999988079071045</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>1.0038455128669741</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>1.0000143647193911</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>1.003597140312195</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>1.000011026859283</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>0.99913793802261353</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>1.0000069141387939</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>1.008505523204803</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>1.0000172853469851</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0.99968093633651733</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0.99998289346694946</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>1.001797139644623</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>0.99999487400054932</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>0.99602830410003662</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>0.99999403953552246</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>1.0039650797843931</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>0.99998462200164795</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0.97771191596984863</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>1.00001060962677</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>0.99966996908187866</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>1.0000109076499939</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>0.99853229522705078</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>0.99997591972351074</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>1.000038862228394</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>1.000013113021851</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0.99983495473861694</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>0.99998992681503296</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>1.0007308721542361</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>1.0000032782554631</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>0.99884957075119019</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>1.0000143051147461</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>1.001543343067169</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0.99998563528060913</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>1.0001538395881651</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>1.0000044703483579</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.99964350461959839</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0.99999392032623291</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0.99905973672866821</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>1.000038087368011</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0.99873322248458862</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>1.0000159740448</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>1.001768231391907</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0.99995905160903931</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>1.0021417737007139</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0.99998342990875244</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0.98543322086334229</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.99997848272323608</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.99959546327590942</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>1.000023424625397</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0.99991804361343384</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0.99999725818634033</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1.000041127204895</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>0.99998730421066284</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>0.99983894824981689</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>1.000032484531403</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>1.0001042485237119</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>0.99997931718826294</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>1.001115560531616</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>0.99999088048934937</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>1.001045227050781</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0.9999922513961792</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0.99296802282333374</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>0.99998462200164795</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>1.0014181137084961</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.99999433755874634</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>1.0019490122795101</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>1.000009417533875</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0.99779736995697021</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>1.0000264644622801</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0.99825823307037354</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0.99998581409454346</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>1.0005472302436831</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>1.0000080466270449</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0.9910510778427124</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>1.0000342130661011</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0.99944585561752319</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.99998587369918823</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>1.002057731151581</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>1.0000069737434389</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>1.004431843757629</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>1.000013470649719</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>1.007910370826721</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0.99998193979263306</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>1.0044112801551821</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>1.0000178813934331</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>0.99828368425369263</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>0.99998342990875244</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>1.008131086826324</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>1.0000152587890621</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0.99610233306884766</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>1.0000045895576479</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>0.99735832214355469</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>0.99997872114181519</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>1.002413153648376</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0.99999231100082397</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>1.0045071244239809</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0.99999314546585083</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>1.004011452198029</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0.99998855590820313</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>1.006348252296448</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>1.0000027418136599</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>1.0027564764022829</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.99999725818634033</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>1.171572864055634</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>1.0000167489051821</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>1.0000091195106511</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>1.000003337860107</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>1.000170111656189</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>0.99999362230300903</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0.99992901086807251</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.99997329711914063</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0.99999558925628662</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>1.0000097751617429</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0.99992656707763672</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0.9999958872795105</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>1.000049471855164</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0.99997949600219727</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>1.0001241564750669</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>1.000016570091248</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>0.99981957674026489</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>1.0000015497207639</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>1.000010013580322</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>0.99995982646942139</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>0.99984753131866455</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>0.99999797344207764</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>1.000161468982697</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>0.99998408555984497</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>0.99982166290283203</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>0.99995225667953491</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>0.99989593029022217</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>1.0000149607658391</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>1.0000068545341489</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>1.0000128149986269</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>1.000187814235687</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>1.0000149607658391</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0.99994498491287231</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>1.0000143051147461</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0.9999576210975647</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0.99999034404754639</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0.99985837936401367</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>0.99999064207077026</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>1.0000125765800481</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>0.99997413158416748</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0.99997937679290771</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>1.000028252601624</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0.9999733567237854</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0.99997276067733765</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0.99993282556533813</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>1.000008344650269</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0.99999582767486572</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>1.0000045895576479</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>0.99981743097305298</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>0.99996715784072876</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>0.99996507167816162</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>0.99999529123306274</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>1.0002148747444151</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0.99998891353607178</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>1.000160396099091</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0.99997448921203613</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>1.0001266598701479</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>1.0000349879264829</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>1.000086724758148</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0.9999728798866272</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0.99981880187988281</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>1.000028252601624</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>1.0000267028808589</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0.99995654821395874</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>1.000058054924011</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.9999927282333374</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>1.0000173449516301</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0.99999475479125977</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0.99998873472213745</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>1.0000262856483459</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0.99985408782958984</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>1.0000089406967161</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>0.9999193549156189</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>1.0000066161155701</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>1.000067532062531</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0.99999988079071045</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0.99983960390090942</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>1.000007152557373</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>1.0000677108764651</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0.99998843669891357</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>1.0002022385597229</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>1.000023424625397</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0.99991172552108765</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>1.000013530254364</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>0.9997711181640625</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>1.000029504299164</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>0.99994772672653198</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>0.99997180700302124</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>0.99992066621780396</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>0.999991774559021</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>0.9998888373374939</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>1.0000055432319639</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>0.99986439943313599</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>0.99999707937240601</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>0.99968427419662476</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1.00000011920929</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1.0000373721122739</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1.000013589859009</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>0.99978208541870117</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>1.0000297427177429</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>0.99980080127716064</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0.99997591972351074</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0.99993628263473511</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0.99999982118606567</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>1.000087678432465</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0.99999207258224487</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>1.0002132654190059</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>1.0000073313713069</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>0.99993109703063965</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0.99999457597732544</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0.99997121095657349</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0.99997591972351074</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>1.0000186562538149</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.99999731779098511</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>1.000231981277466</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.99997615814208984</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>1.000158965587616</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>1.000009179115295</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>1.0000453591346741</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>0.99996018409729004</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1.000226497650146</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>1.0000097751617429</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>1.0001334547996521</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>0.99997216463088989</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>0.99997967481613159</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0.99993890523910522</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>0.99967300891876221</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>0.99996554851531982</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>1.0001339316368101</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>1.000045537948608</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>1.0001387000083919</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>1.0000215172767639</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>0.99988764524459839</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>1.0000032782554631</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>0.99991607666015625</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>0.9999879002571106</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0.99981570243835449</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>1.0000013709068301</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>1.000100314617157</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>0.99994957447052002</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>0.9999537467956543</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.99999970197677612</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0.99995529651641846</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>0.99997544288635254</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>0.99966186285018921</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>1.000001132488251</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>0.99990391731262207</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>1.0000255703926091</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>1.0000888109207151</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>0.99998819828033447</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>0.99975627660751343</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>1.000028729438782</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1.0000022053718569</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>1.0000197291374211</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>1.000012218952179</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>0.9999840259552002</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>0.99989050626754761</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1.000039756298065</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1.0001412630081179</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>0.99999672174453735</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>0.99997603893280029</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>1.000022888183594</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>0.99954408407211304</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>0.999991774559021</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1.000036478042603</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>0.99999749660491943</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>0.9997934103012085</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>0.99996155500411987</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>0.99967497587203979</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1.000012278556824</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>1.0000555515289311</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>1.0000049471855159</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>1.000329852104187</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>0.99999475479125977</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1.000027537345886</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0.99998933076858521</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>1.000097870826721</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>1.0000215172767639</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>0.99994033575057983</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>1.000006377696991</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>1.000020384788513</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0.99994385242462158</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>0.99976879358291626</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>1.000022768974304</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>1.0001804232597351</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>0.99998229742050171</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>1.0004896521568301</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>0.9999958872795105</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>0.99965304136276245</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>0.99999004602432251</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>0.99969625473022461</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>0.99998831748962402</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>0.99956846237182617</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>0.99999260902404785</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>1.000445961952209</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>0.99998760223388672</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>0.9995918869972229</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>1.0000180602073669</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>0.99977433681488037</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>1.000003933906555</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>1.0001586079597471</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>0.99999576807022095</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>1.000336706638336</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>0.99997133016586304</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>1.0001252889633181</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>1.0000197291374211</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>1.0002226233482361</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>1.0000103712081909</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>1.000152707099915</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>0.99999880790710449</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>1.0000346899032591</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>1.0000350475311279</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>1.0001229047775271</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>1.000010073184967</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>1.0001083612442021</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>1.000034093856812</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>1.000285923480988</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>0.9999510645866394</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>0.99998950958251953</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>0.99996709823608398</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>1.000159740447998</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>1.0000054836273189</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1.000441253185272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97AF-4503-9338-6C774D016B2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="84587296"/>
+        <c:axId val="84584416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84587296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84584416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84584416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84587296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249DEF24-EA89-A027-9DAE-80B123C76E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6054,8 +12947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A975" workbookViewId="0">
-      <selection activeCell="J983" sqref="J983"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="D2:D1001 A2:A1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20082,5 +26975,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>